--- a/FlyEdit4_QCustomPlot _plotMulti/excelFrom.xlsx
+++ b/FlyEdit4_QCustomPlot _plotMulti/excelFrom.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作201808_飞行包编辑\飞行包编辑_V0.0.2.180809_Alpha\FlyEdit20180811\FlyEdit4_QCustomPlot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作201808_飞行包编辑\飞行包编辑_V0.0.2.180809_Alpha\FlyEdit20180811\FlyEdit4_QCustomPlot _plotMulti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="835" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="835" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="paralist" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="204">
   <si>
     <t>paraName</t>
   </si>
@@ -1011,6 +1011,86 @@
       </rPr>
       <t>0</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>33.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>33.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>33.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.80</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1080,74 +1160,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1167,7 +1179,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1449,7 +1461,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B38" sqref="B1:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2576,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2986,15 +2998,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3005,6 +3019,62 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3014,10 +3084,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3033,6 +3103,62 @@
         <v>127</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3041,10 +3167,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3060,13 +3186,153 @@
         <v>128</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3084,33 +3350,6 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>130</v>
       </c>
     </row>
